--- a/spreadsheet draft.xlsx
+++ b/spreadsheet draft.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC 05\Desktop\PC 9 Files\CTR-graphing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E43466-1A96-4B1E-9B92-333D3D33ADB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E9867C-05DD-47B0-97A7-E5D2EFD21FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="0" windowWidth="19230" windowHeight="15600" activeTab="1" xr2:uid="{32FD28C1-4A6F-49D2-828D-2A0C70C913E4}"/>
+    <workbookView xWindow="-12855" yWindow="3540" windowWidth="19230" windowHeight="15600" activeTab="1" xr2:uid="{32FD28C1-4A6F-49D2-828D-2A0C70C913E4}"/>
   </bookViews>
   <sheets>
     <sheet name="old" sheetId="1" r:id="rId1"/>
     <sheet name="new" sheetId="2" r:id="rId2"/>
+    <sheet name="task" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="task">task!$A$1:$C$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="56">
   <si>
     <t>Job Details</t>
   </si>
@@ -152,13 +156,61 @@
   </si>
   <si>
     <t>(also known as completion by registered job done)</t>
+  </si>
+  <si>
+    <t>taskID</t>
+  </si>
+  <si>
+    <t>subjobID</t>
+  </si>
+  <si>
+    <t>jobID</t>
+  </si>
+  <si>
+    <t>invoiceID</t>
+  </si>
+  <si>
+    <t>Reconciled</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>purchaseOrder</t>
+  </si>
+  <si>
+    <t>employeeID</t>
+  </si>
+  <si>
+    <t>subjob</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>a@sustech.net.au</t>
+  </si>
+  <si>
+    <t>invoiceInId</t>
+  </si>
+  <si>
+    <t>contractorId</t>
+  </si>
+  <si>
+    <t>i5</t>
+  </si>
+  <si>
+    <t>expenseId</t>
+  </si>
+  <si>
+    <t>subjobId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,8 +218,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444444"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF7D7D7D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,8 +260,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFDFDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -189,19 +281,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -548,28 +693,28 @@
       <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -637,10 +782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC0A6E97-DD73-485C-80BE-D1FFD55CAE08}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A43" sqref="A43:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +794,7 @@
     <col min="2" max="13" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D1" s="1">
         <v>43787</v>
       </c>
@@ -683,7 +828,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -718,217 +863,266 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="5">
+        <v>43738</v>
+      </c>
+      <c r="S6" s="5">
+        <v>43769</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" t="s">
-        <v>28</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>3911012</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1760</v>
+      </c>
+      <c r="S7" s="9">
+        <v>1760</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>3911013</v>
+      </c>
+      <c r="R8" s="12">
+        <v>100</v>
+      </c>
+      <c r="S8" s="12">
+        <v>100</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -962,234 +1156,274 @@
       <c r="M9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="Q9" s="8">
+        <v>3911015</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>20</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3" t="s">
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>43591</v>
+      </c>
+      <c r="R14" s="15">
+        <v>43753</v>
+      </c>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3" t="s">
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>100</v>
+      </c>
+      <c r="R15" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>28</v>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>50</v>
+      </c>
+      <c r="R16" s="9">
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1665,7 +1899,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>30</v>
       </c>
@@ -1700,7 +1934,408 @@
         <v>28</v>
       </c>
     </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="15">
+        <v>43704</v>
+      </c>
+      <c r="E37" s="15">
+        <v>43738</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="8">
+        <v>1</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2223.6</v>
+      </c>
+      <c r="E38" s="9">
+        <v>5559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="15">
+        <v>43738</v>
+      </c>
+      <c r="D40" s="15">
+        <v>43769</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="9">
+        <v>39</v>
+      </c>
+      <c r="C41" s="9">
+        <v>60</v>
+      </c>
+      <c r="D41" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="15">
+        <v>43698</v>
+      </c>
+      <c r="D43" s="15">
+        <v>43697</v>
+      </c>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>2</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="9">
+        <v>1040</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q6" r:id="rId1" display="http://localhost/phpmyadmin/sql.php" xr:uid="{0EE699A2-68A4-4852-A5E1-E8A46A21B3ED}"/>
+    <hyperlink ref="R6" r:id="rId2" display="http://localhost/phpmyadmin/sql.php" xr:uid="{D3D6EC0A-0BBC-42DA-B4D0-1BA025D6944F}"/>
+    <hyperlink ref="S6" r:id="rId3" display="http://localhost/phpmyadmin/sql.php" xr:uid="{A2F3E971-4186-4CA1-91AD-A821C891F0A6}"/>
+    <hyperlink ref="T6" r:id="rId4" display="http://localhost/phpmyadmin/sql.php" xr:uid="{6EFC5BC7-2F1C-4DEB-8ED9-8ACBB44847E8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:U44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="Q6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" s="5">
+        <v>43738</v>
+      </c>
+      <c r="S6" s="5">
+        <v>43769</v>
+      </c>
+      <c r="T6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="U6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="Q7" s="8">
+        <v>3911012</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1760</v>
+      </c>
+      <c r="S7" s="9">
+        <v>1760</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="Q8" s="11">
+        <v>3911013</v>
+      </c>
+      <c r="R8" s="12">
+        <v>100</v>
+      </c>
+      <c r="S8" s="12">
+        <v>100</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q9" s="8">
+        <v>3911015</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0</v>
+      </c>
+      <c r="S9" s="9">
+        <v>20</v>
+      </c>
+      <c r="T9" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="P14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="15">
+        <v>43591</v>
+      </c>
+      <c r="R14" s="15">
+        <v>43753</v>
+      </c>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P15" s="8">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>100</v>
+      </c>
+      <c r="R15" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P16" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>50</v>
+      </c>
+      <c r="R16" s="9">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="15">
+        <v>43704</v>
+      </c>
+      <c r="E37" s="15">
+        <v>43738</v>
+      </c>
+      <c r="F37" s="7"/>
+    </row>
+    <row r="38" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="8">
+        <v>1</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2223.6</v>
+      </c>
+      <c r="E38" s="9">
+        <v>5559</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="15">
+        <v>43738</v>
+      </c>
+      <c r="D40" s="15">
+        <v>43769</v>
+      </c>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="9">
+        <v>39</v>
+      </c>
+      <c r="C41" s="9">
+        <v>60</v>
+      </c>
+      <c r="D41" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="15">
+        <v>43698</v>
+      </c>
+      <c r="D43" s="15">
+        <v>43697</v>
+      </c>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
+        <v>2</v>
+      </c>
+      <c r="B44" s="17"/>
+      <c r="C44" s="9">
+        <v>1040</v>
+      </c>
+      <c r="D44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="Q6" r:id="rId1" display="http://localhost/phpmyadmin/sql.php" xr:uid="{876DB386-C6FF-4911-BD5C-4E573C0A684B}"/>
+    <hyperlink ref="R6" r:id="rId2" display="http://localhost/phpmyadmin/sql.php" xr:uid="{9352A793-C5F1-485A-87D3-1A2709F69A23}"/>
+    <hyperlink ref="S6" r:id="rId3" display="http://localhost/phpmyadmin/sql.php" xr:uid="{2EC1AF7E-4ABE-420D-B6DE-B6E0EBDCB3AC}"/>
+    <hyperlink ref="T6" r:id="rId4" display="http://localhost/phpmyadmin/sql.php" xr:uid="{3ECBA321-DA1F-420B-BA64-6815A035C4F0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>